--- a/Second part/covidsim-7.xlsx
+++ b/Second part/covidsim-7.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -476,7 +476,7 @@
         <v>0.02577319587628867</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -505,7 +505,7 @@
         <v>0.04822509676479835</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.299999958835542</v>
       </c>
       <c r="H4">
         <v>0.008247422680412373</v>
@@ -534,7 +534,7 @@
         <v>0.110309476240835</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.649999407120049</v>
       </c>
       <c r="H5">
         <v>0.01543203096473547</v>
@@ -563,7 +563,7 @@
         <v>0.1643932350252108</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>3.372661334462464</v>
       </c>
       <c r="H6">
         <v>0.03529903239706719</v>
@@ -592,7 +592,7 @@
         <v>0.313946625759078</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>6.624637735076249</v>
       </c>
       <c r="H7">
         <v>0.05260583520806745</v>
@@ -621,7 +621,7 @@
         <v>0.4442273056815123</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>8.3654376976192</v>
       </c>
       <c r="H8">
         <v>0.100462920242905</v>
@@ -650,7 +650,7 @@
         <v>0.804482141380081</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>16.19902415387332</v>
       </c>
       <c r="H9">
         <v>0.1421527378180839</v>
@@ -679,7 +679,7 @@
         <v>1.11831016146034</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>20.39238156657666</v>
       </c>
       <c r="H10">
         <v>0.2574342852416259</v>
@@ -708,7 +708,7 @@
         <v>1.98611585873951</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>39.26241186261177</v>
       </c>
       <c r="H11">
         <v>0.3578592516673089</v>
@@ -737,7 +737,7 @@
         <v>2.742077792516254</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>49.36361836083233</v>
       </c>
       <c r="H12">
         <v>0.6355570747966434</v>
@@ -766,7 +766,7 @@
         <v>4.832495435252263</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>94.81859350111336</v>
       </c>
       <c r="H13">
         <v>0.8774648936052014</v>
@@ -795,7 +795,7 @@
         <v>6.653452603904879</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>119.1507534226403</v>
       </c>
       <c r="H14">
         <v>1.546398539280724</v>
@@ -824,7 +824,7 @@
         <v>11.68890549890203</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>228.6428353451192</v>
       </c>
       <c r="H15">
         <v>2.129104833249561</v>
@@ -853,7 +853,7 @@
         <v>16.07501311879276</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>287.2537561114877</v>
       </c>
       <c r="H16">
         <v>3.740449759648651</v>
@@ -882,7 +882,7 @@
         <v>28.2042018468006</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>550.9875882398337</v>
       </c>
       <c r="H17">
         <v>5.144004198013683</v>
@@ -911,7 +911,7 @@
         <v>38.7677559100222</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>692.1611814508215</v>
       </c>
       <c r="H18">
         <v>9.025344590976193</v>
@@ -940,7 +940,7 @@
         <v>67.98205297935489</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1327.353505840525</v>
       </c>
       <c r="H19">
         <v>12.4056818912071</v>
@@ -969,7 +969,7 @@
         <v>93.41656215781411</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1667.348950436339</v>
       </c>
       <c r="H20">
         <v>21.75425695339356</v>
@@ -998,7 +998,7 @@
         <v>163.7704361103935</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>3196.813120148145</v>
       </c>
       <c r="H21">
         <v>29.89329989050051</v>
@@ -1027,7 +1027,7 @@
         <v>224.9707743474321</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>4015.390171630308</v>
       </c>
       <c r="H22">
         <v>52.40653955532593</v>
@@ -1056,7 +1056,7 @@
         <v>394.3302096004377</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>7695.999959554523</v>
       </c>
       <c r="H23">
         <v>71.99064779117826</v>
@@ -1085,7 +1085,7 @@
         <v>541.3594658597598</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>9665.361584533937</v>
       </c>
       <c r="H24">
         <v>126.1856670721401</v>
@@ -1114,7 +1114,7 @@
         <v>948.6637737947194</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>18510.20447717514</v>
       </c>
       <c r="H25">
         <v>173.2350290751231</v>
@@ -1143,7 +1143,7 @@
         <v>1300.563605180199</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>23239.76084331516</v>
       </c>
       <c r="H26">
         <v>303.5724076143102</v>
@@ -1172,7 +1172,7 @@
         <v>2277.891376764043</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>44423.13556335494</v>
       </c>
       <c r="H27">
         <v>416.1803536576637</v>
@@ -1201,7 +1201,7 @@
         <v>3112.578108304575</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>55733.20364191663</v>
       </c>
       <c r="H28">
         <v>728.9252405644937</v>
@@ -1230,7 +1230,7 @@
         <v>5444.966928372155</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>106059.5767601449</v>
       </c>
       <c r="H29">
         <v>996.0249946574642</v>
@@ -1259,7 +1259,7 @@
         <v>7382.993552860506</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>132832.3779767528</v>
       </c>
       <c r="H30">
         <v>1742.38941707909</v>
@@ -1288,7 +1288,7 @@
         <v>12878.28303769755</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>250132.1997759799</v>
       </c>
       <c r="H31">
         <v>2362.557936915362</v>
@@ -1317,7 +1317,7 @@
         <v>17160.96806023935</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>312006.949651625</v>
       </c>
       <c r="H32">
         <v>4121.050572063215</v>
@@ -1346,7 +1346,7 @@
         <v>29732.56477658174</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>573582.7928952808</v>
       </c>
       <c r="H33">
         <v>5491.509779276593</v>
@@ -1375,7 +1375,7 @@
         <v>38219.87429209173</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>708949.8849860197</v>
       </c>
       <c r="H34">
         <v>9514.420728506157</v>
@@ -1404,7 +1404,7 @@
         <v>65208.66340907094</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1238264.389199252</v>
       </c>
       <c r="H35">
         <v>12230.35977346935</v>
@@ -1433,7 +1433,7 @@
         <v>78786.23972960978</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1501589.747268843</v>
       </c>
       <c r="H36">
         <v>20866.7722909027</v>
@@ -1462,7 +1462,7 @@
         <v>130122.0348488177</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>2385760.049273318</v>
       </c>
       <c r="H37">
         <v>25211.59671347513</v>
@@ -1491,7 +1491,7 @@
         <v>145865.3618783008</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>2797048.372687323</v>
       </c>
       <c r="H38">
         <v>41639.05115162168</v>
@@ -1520,7 +1520,7 @@
         <v>227005.0751035621</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>3877547.682531639</v>
       </c>
       <c r="H39">
         <v>46676.91580105626</v>
@@ -1549,7 +1549,7 @@
         <v>242520.2571531821</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>4343533.786432501</v>
       </c>
       <c r="H40">
         <v>72641.62403313986</v>
@@ -1578,7 +1578,7 @@
         <v>346497.2204251997</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>5246907.460720191</v>
       </c>
       <c r="H41">
         <v>77606.48228901827</v>
@@ -1607,7 +1607,7 @@
         <v>368123.9891213368</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>5627513.142339526</v>
       </c>
       <c r="H42">
         <v>110879.1105360639</v>
@@ -1636,7 +1636,7 @@
         <v>480022.2887194633</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>6182273.970013991</v>
       </c>
       <c r="H43">
         <v>117799.6765188278</v>
@@ -1665,7 +1665,7 @@
         <v>513981.4190045022</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>6432699.1726882</v>
       </c>
       <c r="H44">
         <v>153607.1323902283</v>
@@ -1694,7 +1694,7 @@
         <v>621152.1387391185</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>6728131.02072562</v>
       </c>
       <c r="H45">
         <v>164474.0540814407</v>
@@ -1723,7 +1723,7 @@
         <v>665074.7393002136</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>6879009.148659092</v>
       </c>
       <c r="H46">
         <v>198768.6843965179</v>
@@ -1752,7 +1752,7 @@
         <v>760684.2216008399</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>7035021.609765365</v>
       </c>
       <c r="H47">
         <v>212823.9165760684</v>
@@ -1781,7 +1781,7 @@
         <v>808286.8592814605</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>7125000.577131298</v>
       </c>
       <c r="H48">
         <v>243418.9509122688</v>
@@ -1810,7 +1810,7 @@
         <v>889989.9954854134</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>7211515.981120666</v>
       </c>
       <c r="H49">
         <v>258651.7949700674</v>
@@ -1839,7 +1839,7 @@
         <v>936044.9234638668</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>7266477.341902074</v>
       </c>
       <c r="H50">
         <v>284796.7985553323</v>
@@ -1868,7 +1868,7 @@
         <v>1004014.256158637</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>7317434.725876416</v>
       </c>
       <c r="H51">
         <v>299534.3755084374</v>
@@ -1897,7 +1897,7 @@
         <v>1045558.568134407</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>7352208.799908794</v>
       </c>
       <c r="H52">
         <v>321284.5619707638</v>
@@ -1926,7 +1926,7 @@
         <v>1101129.137090826</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>7383930.916181096</v>
       </c>
       <c r="H53">
         <v>334578.7418030104</v>
@@ -1955,7 +1955,7 @@
         <v>1136992.266007674</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>7406741.883736805</v>
       </c>
       <c r="H54">
         <v>352361.3238690645</v>
@@ -1984,7 +1984,7 @@
         <v>1181901.311658478</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>7427432.301289553</v>
       </c>
       <c r="H55">
         <v>363837.5251224557</v>
@@ -2013,7 +2013,7 @@
         <v>1211991.576227202</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>7442895.805777516</v>
       </c>
       <c r="H56">
         <v>378208.4197307128</v>
@@ -2042,7 +2042,7 @@
         <v>1247995.601379109</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>7456914.05702998</v>
       </c>
       <c r="H57">
         <v>387837.3043927047</v>
@@ -2071,7 +2071,7 @@
         <v>1272767.435076204</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>7467697.025472897</v>
       </c>
       <c r="H58">
         <v>399358.5924413148</v>
@@ -2100,7 +2100,7 @@
         <v>1301469.816116456</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>7477489.559742809</v>
       </c>
       <c r="H59">
         <v>407285.5792243853</v>
@@ -2129,7 +2129,7 @@
         <v>1321599.29322799</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>7485187.598697254</v>
       </c>
       <c r="H60">
         <v>416470.3411572661</v>
@@ -2158,7 +2158,7 @@
         <v>1344387.968525497</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>7492197.06768323</v>
       </c>
       <c r="H61">
         <v>422911.7738329567</v>
@@ -2187,7 +2187,7 @@
         <v>1360595.934858231</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>7497799.31853856</v>
       </c>
       <c r="H62">
         <v>430204.1499281591</v>
@@ -2216,7 +2216,7 @@
         <v>1378635.497949732</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>7502914.722241379</v>
       </c>
       <c r="H63">
         <v>435390.699154634</v>
@@ -2245,7 +2245,7 @@
         <v>1391600.377323927</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>7507055.440711643</v>
       </c>
       <c r="H64">
         <v>441163.3593439141</v>
@@ -2274,7 +2274,7 @@
         <v>1405848.941769324</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>7510846.187101032</v>
       </c>
       <c r="H65">
         <v>445312.1207436566</v>
@@ -2303,7 +2303,7 @@
         <v>1416169.952537734</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>7513944.86803931</v>
       </c>
       <c r="H66">
         <v>449871.6613661836</v>
@@ -2332,7 +2332,7 @@
         <v>1427405.47789468</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>7516788.146538169</v>
       </c>
       <c r="H67">
         <v>453174.3848120749</v>
@@ -2361,7 +2361,7 @@
         <v>1435592.581963043</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>7519130.041750065</v>
       </c>
       <c r="H68">
         <v>456769.7529262975</v>
@@ -2390,7 +2390,7 @@
         <v>1444441.039970011</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>7521283.080485576</v>
       </c>
       <c r="H69">
         <v>459389.6262281739</v>
@@ -2419,7 +2419,7 @@
         <v>1450918.129319457</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>7523066.936083595</v>
       </c>
       <c r="H70">
         <v>462221.1327904037</v>
@@ -2448,7 +2448,7 @@
         <v>1457879.957325239</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>7524709.573221653</v>
       </c>
       <c r="H71">
         <v>464293.8013822261</v>
@@ -2477,7 +2477,7 @@
         <v>1462993.866586996</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>7526076.804575457</v>
       </c>
       <c r="H72">
         <v>466521.5863440766</v>
@@ -2506,7 +2506,7 @@
         <v>1468467.271698897</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>7527337.451276738</v>
       </c>
       <c r="H73">
         <v>468158.0373078387</v>
@@ -2535,7 +2535,7 @@
         <v>1472498.692295193</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>7528390.497297858</v>
       </c>
       <c r="H74">
         <v>469909.5269436471</v>
@@ -2564,7 +2564,7 @@
         <v>1476799.440210467</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>7529362.480588601</v>
       </c>
       <c r="H75">
         <v>471199.5815344617</v>
@@ -2593,7 +2593,7 @@
         <v>1479973.762156725</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>7530176.670420411</v>
       </c>
       <c r="H76">
         <v>472575.8208673494</v>
@@ -2622,7 +2622,7 @@
         <v>1483351.597528953</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>7530928.823226064</v>
       </c>
       <c r="H77">
         <v>473591.6038901519</v>
@@ -2651,7 +2651,7 @@
         <v>1485848.773823299</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>7531560.246869633</v>
       </c>
       <c r="H78">
         <v>474672.5112092649</v>
@@ -2680,7 +2680,7 @@
         <v>1488500.837885621</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>7532143.954734585</v>
       </c>
       <c r="H79">
         <v>475471.6076234555</v>
@@ -2709,7 +2709,7 @@
         <v>1490463.937161881</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>7532634.807945395</v>
       </c>
       <c r="H80">
         <v>476320.2681233986</v>
@@ -2738,7 +2738,7 @@
         <v>1492545.615683262</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>7533088.812439002</v>
       </c>
       <c r="H81">
         <v>476948.4598918019</v>
@@ -2767,7 +2767,7 @@
         <v>1494088.021399743</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>7533471.105461833</v>
       </c>
       <c r="H82">
         <v>477614.5970186439</v>
@@ -2796,7 +2796,7 @@
         <v>1495721.648803815</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>7533824.850276679</v>
       </c>
       <c r="H83">
         <v>478108.1668479179</v>
@@ -2825,7 +2825,7 @@
         <v>1496933.002512358</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>7534123.031636965</v>
       </c>
       <c r="H84">
         <v>478630.9276172207</v>
@@ -2854,7 +2854,7 @@
         <v>1498214.807315663</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>7534399.038930016</v>
       </c>
       <c r="H85">
         <v>479018.5608039547</v>
@@ -2883,7 +2883,7 @@
         <v>1499165.849968593</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>7534631.883803831</v>
       </c>
       <c r="H86">
         <v>479428.7383410122</v>
@@ -2912,7 +2912,7 @@
         <v>1500171.474215525</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>7534847.470623933</v>
       </c>
       <c r="H87">
         <v>479733.0719899497</v>
@@ -2941,7 +2941,7 @@
         <v>1500917.952573987</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>7535029.460403197</v>
       </c>
       <c r="H88">
         <v>480054.8717489679</v>
@@ -2970,7 +2970,7 @@
         <v>1501706.824580324</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>7535197.996715812</v>
       </c>
       <c r="H89">
         <v>480293.7448236759</v>
@@ -2999,7 +2999,7 @@
         <v>1502292.621585151</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>7535340.339886662</v>
       </c>
       <c r="H90">
         <v>480546.1838657037</v>
@@ -3028,7 +3028,7 @@
         <v>1502911.412158466</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>7535472.182170378</v>
       </c>
       <c r="H91">
         <v>480733.6389072484</v>
@@ -3057,7 +3057,7 @@
         <v>1503371.042655771</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>7535583.578015413</v>
       </c>
       <c r="H92">
         <v>480931.6518907092</v>
@@ -3086,7 +3086,7 @@
         <v>1503856.392039929</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>7535686.769384197</v>
       </c>
       <c r="H93">
         <v>481078.7336498467</v>
@@ -3115,7 +3115,7 @@
         <v>1504216.984927995</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>7535773.984503493</v>
       </c>
       <c r="H94">
         <v>481234.0454527773</v>
@@ -3144,7 +3144,7 @@
         <v>1504597.651414748</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>7535854.784326009</v>
       </c>
       <c r="H95">
         <v>481349.4351769583</v>
@@ -3173,7 +3173,7 @@
         <v>1504880.519342676</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>7535923.091128531</v>
       </c>
       <c r="H96">
         <v>481471.2484527194</v>
@@ -3202,7 +3202,7 @@
         <v>1505179.070420713</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>7535986.378541228</v>
       </c>
       <c r="H97">
         <v>481561.7661896564</v>
@@ -3231,7 +3231,7 @@
         <v>1505400.950115687</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>7536039.890804313</v>
       </c>
       <c r="H98">
         <v>481657.3025346282</v>
@@ -3260,7 +3260,7 @@
         <v>1505635.092470389</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>7536089.473940859</v>
       </c>
       <c r="H99">
         <v>481728.3040370199</v>
@@ -3289,7 +3289,7 @@
         <v>1505809.123143313</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>7536131.404880614</v>
       </c>
       <c r="H100">
         <v>481803.2295905244</v>
@@ -3318,7 +3318,7 @@
         <v>1505992.747969349</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>7536170.258966783</v>
       </c>
       <c r="H101">
         <v>481858.91940586</v>
@@ -3347,13 +3347,2913 @@
         <v>1506129.242099199</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>7536203.12051086</v>
       </c>
       <c r="H102">
         <v>481917.6793501917</v>
       </c>
       <c r="I102">
         <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>117585.6709616093</v>
+      </c>
+      <c r="C103">
+        <v>25.75715417287749</v>
+      </c>
+      <c r="D103">
+        <v>4867.340590770141</v>
+      </c>
+      <c r="E103">
+        <v>6025092.985034758</v>
+      </c>
+      <c r="F103">
+        <v>1506273.24625869</v>
+      </c>
+      <c r="G103">
+        <v>7536233.571884218</v>
+      </c>
+      <c r="H103">
+        <v>481961.3574717438</v>
+      </c>
+      <c r="I103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>117561.8021943221</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>4381.716813880106</v>
+      </c>
+      <c r="E104">
+        <v>6025521.184793439</v>
+      </c>
+      <c r="F104">
+        <v>1506380.29619836</v>
+      </c>
+      <c r="G104">
+        <v>7536259.329038391</v>
+      </c>
+      <c r="H104">
+        <v>482007.4388027806</v>
+      </c>
+      <c r="I104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>117541.611459129</v>
+      </c>
+      <c r="C105">
+        <v>20.19073519302683</v>
+      </c>
+      <c r="D105">
+        <v>3817.062585287309</v>
+      </c>
+      <c r="E105">
+        <v>6025972.908176312</v>
+      </c>
+      <c r="F105">
+        <v>1506493.227044078</v>
+      </c>
+      <c r="G105">
+        <v>7536283.197805678</v>
+      </c>
+      <c r="H105">
+        <v>482041.6947834751</v>
+      </c>
+      <c r="I105">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>117522.9005625685</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>3436.189224792944</v>
+      </c>
+      <c r="E106">
+        <v>6026308.728170112</v>
+      </c>
+      <c r="F106">
+        <v>1506577.182042528</v>
+      </c>
+      <c r="G106">
+        <v>7536303.388540871</v>
+      </c>
+      <c r="H106">
+        <v>482077.832654105</v>
+      </c>
+      <c r="I106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>117507.0720113797</v>
+      </c>
+      <c r="C107">
+        <v>15.82855118882773</v>
+      </c>
+      <c r="D107">
+        <v>2993.381335000039</v>
+      </c>
+      <c r="E107">
+        <v>6026662.974481946</v>
+      </c>
+      <c r="F107">
+        <v>1506665.743620486</v>
+      </c>
+      <c r="G107">
+        <v>7536322.099437431</v>
+      </c>
+      <c r="H107">
+        <v>482104.6982536089</v>
+      </c>
+      <c r="I107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>117492.4033071719</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>2694.67312581656</v>
+      </c>
+      <c r="E108">
+        <v>6026926.33885361</v>
+      </c>
+      <c r="F108">
+        <v>1506731.584713402</v>
+      </c>
+      <c r="G108">
+        <v>7536337.92798862</v>
+      </c>
+      <c r="H108">
+        <v>482133.0379585557</v>
+      </c>
+      <c r="I108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>117479.9937161096</v>
+      </c>
+      <c r="C109">
+        <v>12.40959106224793</v>
+      </c>
+      <c r="D109">
+        <v>2347.421434345353</v>
+      </c>
+      <c r="E109">
+        <v>6027204.140206786</v>
+      </c>
+      <c r="F109">
+        <v>1506801.035051696</v>
+      </c>
+      <c r="G109">
+        <v>7536352.596692828</v>
+      </c>
+      <c r="H109">
+        <v>482154.1071082888</v>
+      </c>
+      <c r="I109">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>117468.4932768951</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>2113.1589895721</v>
+      </c>
+      <c r="E110">
+        <v>6027410.678186826</v>
+      </c>
+      <c r="F110">
+        <v>1506852.669546707</v>
+      </c>
+      <c r="G110">
+        <v>7536365.00628389</v>
+      </c>
+      <c r="H110">
+        <v>482176.3312165429</v>
+      </c>
+      <c r="I110">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>117458.7636729159</v>
+      </c>
+      <c r="C111">
+        <v>9.729603979159258</v>
+      </c>
+      <c r="D111">
+        <v>1840.84468679219</v>
+      </c>
+      <c r="E111">
+        <v>6027628.529629051</v>
+      </c>
+      <c r="F111">
+        <v>1506907.132407263</v>
+      </c>
+      <c r="G111">
+        <v>7536376.506723105</v>
+      </c>
+      <c r="H111">
+        <v>482192.8542549461</v>
+      </c>
+      <c r="I111">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>117449.7467757432</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>1657.127610690929</v>
+      </c>
+      <c r="E112">
+        <v>6027790.500490852</v>
+      </c>
+      <c r="F112">
+        <v>1506947.625122713</v>
+      </c>
+      <c r="G112">
+        <v>7536386.236327084</v>
+      </c>
+      <c r="H112">
+        <v>482210.2823703241</v>
+      </c>
+      <c r="I112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>117442.1180916668</v>
+      </c>
+      <c r="C113">
+        <v>7.628684076463873</v>
+      </c>
+      <c r="D113">
+        <v>1443.580238179212</v>
+      </c>
+      <c r="E113">
+        <v>6027961.338388861</v>
+      </c>
+      <c r="F113">
+        <v>1506990.334597215</v>
+      </c>
+      <c r="G113">
+        <v>7536395.253224256</v>
+      </c>
+      <c r="H113">
+        <v>482223.2400392682</v>
+      </c>
+      <c r="I113">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>117435.0481553389</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>1299.50491909091</v>
+      </c>
+      <c r="E114">
+        <v>6028088.357540457</v>
+      </c>
+      <c r="F114">
+        <v>1507022.089385114</v>
+      </c>
+      <c r="G114">
+        <v>7536402.881908333</v>
+      </c>
+      <c r="H114">
+        <v>482236.9070711089</v>
+      </c>
+      <c r="I114">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>117429.0665569625</v>
+      </c>
+      <c r="C115">
+        <v>5.981598376432008</v>
+      </c>
+      <c r="D115">
+        <v>1132.042944981257</v>
+      </c>
+      <c r="E115">
+        <v>6028222.327119743</v>
+      </c>
+      <c r="F115">
+        <v>1507055.581779936</v>
+      </c>
+      <c r="G115">
+        <v>7536409.951844661</v>
+      </c>
+      <c r="H115">
+        <v>482247.0686032365</v>
+      </c>
+      <c r="I115">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>117423.5230295931</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>1019.057023148479</v>
+      </c>
+      <c r="E116">
+        <v>6028321.935957806</v>
+      </c>
+      <c r="F116">
+        <v>1507080.483989452</v>
+      </c>
+      <c r="G116">
+        <v>7536415.933443038</v>
+      </c>
+      <c r="H116">
+        <v>482257.7861695795</v>
+      </c>
+      <c r="I116">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>117418.8327883159</v>
+      </c>
+      <c r="C117">
+        <v>4.690241277141512</v>
+      </c>
+      <c r="D117">
+        <v>887.7352418149119</v>
+      </c>
+      <c r="E117">
+        <v>6028426.993382873</v>
+      </c>
+      <c r="F117">
+        <v>1507106.748345718</v>
+      </c>
+      <c r="G117">
+        <v>7536421.476970407</v>
+      </c>
+      <c r="H117">
+        <v>482265.7548766245</v>
+      </c>
+      <c r="I117">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>117414.4860195133</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>799.1309203848621</v>
+      </c>
+      <c r="E118">
+        <v>6028505.10644808</v>
+      </c>
+      <c r="F118">
+        <v>1507126.27661202</v>
+      </c>
+      <c r="G118">
+        <v>7536426.167211684</v>
+      </c>
+      <c r="H118">
+        <v>482274.1594706299</v>
+      </c>
+      <c r="I118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>117410.8082779489</v>
+      </c>
+      <c r="C119">
+        <v>3.677741564375391</v>
+      </c>
+      <c r="D119">
+        <v>696.1501316754727</v>
+      </c>
+      <c r="E119">
+        <v>6028587.491079049</v>
+      </c>
+      <c r="F119">
+        <v>1507146.872769762</v>
+      </c>
+      <c r="G119">
+        <v>7536430.513980486</v>
+      </c>
+      <c r="H119">
+        <v>482280.4085158464</v>
+      </c>
+      <c r="I119">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>117407.3998473495</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>626.6665490362008</v>
+      </c>
+      <c r="E120">
+        <v>6028648.746882891</v>
+      </c>
+      <c r="F120">
+        <v>1507162.186720723</v>
+      </c>
+      <c r="G120">
+        <v>7536434.191722051</v>
+      </c>
+      <c r="H120">
+        <v>482286.999286324</v>
+      </c>
+      <c r="I120">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>117404.5159913231</v>
+      </c>
+      <c r="C121">
+        <v>2.88385602636264</v>
+      </c>
+      <c r="D121">
+        <v>545.9105504490615</v>
+      </c>
+      <c r="E121">
+        <v>6028713.351681762</v>
+      </c>
+      <c r="F121">
+        <v>1507178.337920441</v>
+      </c>
+      <c r="G121">
+        <v>7536437.600152651</v>
+      </c>
+      <c r="H121">
+        <v>482291.8997506313</v>
+      </c>
+      <c r="I121">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>117401.8433030687</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>491.4217889292115</v>
+      </c>
+      <c r="E122">
+        <v>6028761.387926403</v>
+      </c>
+      <c r="F122">
+        <v>1507190.346981601</v>
+      </c>
+      <c r="G122">
+        <v>7536440.484008677</v>
+      </c>
+      <c r="H122">
+        <v>482297.068134541</v>
+      </c>
+      <c r="I122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>117399.5819367674</v>
+      </c>
+      <c r="C123">
+        <v>2.261366301234776</v>
+      </c>
+      <c r="D123">
+        <v>428.0942388094676</v>
+      </c>
+      <c r="E123">
+        <v>6028812.049966498</v>
+      </c>
+      <c r="F123">
+        <v>1507203.012491625</v>
+      </c>
+      <c r="G123">
+        <v>7536443.156696931</v>
+      </c>
+      <c r="H123">
+        <v>482300.9110341122</v>
+      </c>
+      <c r="I123">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>117397.4861513751</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>385.3645569376933</v>
+      </c>
+      <c r="E124">
+        <v>6028849.71943335</v>
+      </c>
+      <c r="F124">
+        <v>1507212.429858337</v>
+      </c>
+      <c r="G124">
+        <v>7536445.418063233</v>
+      </c>
+      <c r="H124">
+        <v>482304.9639973199</v>
+      </c>
+      <c r="I124">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>117395.7128924352</v>
+      </c>
+      <c r="C125">
+        <v>1.773258939904988</v>
+      </c>
+      <c r="D125">
+        <v>335.7041758890215</v>
+      </c>
+      <c r="E125">
+        <v>6028889.447738188</v>
+      </c>
+      <c r="F125">
+        <v>1507222.361934547</v>
+      </c>
+      <c r="G125">
+        <v>7536447.513848625</v>
+      </c>
+      <c r="H125">
+        <v>482307.977554668</v>
+      </c>
+      <c r="I125">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>117394.0694709409</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>302.1959985799322</v>
+      </c>
+      <c r="E126">
+        <v>6028918.987624383</v>
+      </c>
+      <c r="F126">
+        <v>1507229.746906096</v>
+      </c>
+      <c r="G126">
+        <v>7536449.287107565</v>
+      </c>
+      <c r="H126">
+        <v>482311.1558190551</v>
+      </c>
+      <c r="I126">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>117392.6789534409</v>
+      </c>
+      <c r="C127">
+        <v>1.39051750007217</v>
+      </c>
+      <c r="D127">
+        <v>263.2532152577759</v>
+      </c>
+      <c r="E127">
+        <v>6028950.141851041</v>
+      </c>
+      <c r="F127">
+        <v>1507237.53546276</v>
+      </c>
+      <c r="G127">
+        <v>7536450.930529059</v>
+      </c>
+      <c r="H127">
+        <v>482313.5190099506</v>
+      </c>
+      <c r="I127">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>117391.3902470602</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>236.9765218651229</v>
+      </c>
+      <c r="E128">
+        <v>6028973.306584859</v>
+      </c>
+      <c r="F128">
+        <v>1507243.326646215</v>
+      </c>
+      <c r="G128">
+        <v>7536452.321046559</v>
+      </c>
+      <c r="H128">
+        <v>482316.0113480833</v>
+      </c>
+      <c r="I128">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>117390.2998537994</v>
+      </c>
+      <c r="C129">
+        <v>1.090393260811774</v>
+      </c>
+      <c r="D129">
+        <v>206.4383102845658</v>
+      </c>
+      <c r="E129">
+        <v>6028997.737154123</v>
+      </c>
+      <c r="F129">
+        <v>1507249.434288531</v>
+      </c>
+      <c r="G129">
+        <v>7536453.60975294</v>
+      </c>
+      <c r="H129">
+        <v>482317.8645267888</v>
+      </c>
+      <c r="I129">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>117389.2892958116</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>185.8325021103076</v>
+      </c>
+      <c r="E130">
+        <v>6029015.902561664</v>
+      </c>
+      <c r="F130">
+        <v>1507253.975640416</v>
+      </c>
+      <c r="G130">
+        <v>7536454.7001462</v>
+      </c>
+      <c r="H130">
+        <v>482319.8189723299</v>
+      </c>
+      <c r="I130">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>117388.4342453624</v>
+      </c>
+      <c r="C131">
+        <v>0.8550504491843544</v>
+      </c>
+      <c r="D131">
+        <v>161.8850147249586</v>
+      </c>
+      <c r="E131">
+        <v>6029035.060551571</v>
+      </c>
+      <c r="F131">
+        <v>1507258.765137893</v>
+      </c>
+      <c r="G131">
+        <v>7536455.710704189</v>
+      </c>
+      <c r="H131">
+        <v>482321.2722049331</v>
+      </c>
+      <c r="I131">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>117387.6417983</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>145.7262621483319</v>
+      </c>
+      <c r="E132">
+        <v>6029049.305551642</v>
+      </c>
+      <c r="F132">
+        <v>1507262.32638791</v>
+      </c>
+      <c r="G132">
+        <v>7536456.565754638</v>
+      </c>
+      <c r="H132">
+        <v>482322.8048441256</v>
+      </c>
+      <c r="I132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>117386.971293648</v>
+      </c>
+      <c r="C133">
+        <v>0.6705046520411724</v>
+      </c>
+      <c r="D133">
+        <v>126.9471046549902</v>
+      </c>
+      <c r="E133">
+        <v>6029064.328877636</v>
+      </c>
+      <c r="F133">
+        <v>1507266.082219409</v>
+      </c>
+      <c r="G133">
+        <v>7536457.3582017</v>
+      </c>
+      <c r="H133">
+        <v>482323.9444441313</v>
+      </c>
+      <c r="I133">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>117386.3498801814</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>114.275680941712</v>
+      </c>
+      <c r="E134">
+        <v>6029075.499551101</v>
+      </c>
+      <c r="F134">
+        <v>1507268.874887775</v>
+      </c>
+      <c r="G134">
+        <v>7536458.028706352</v>
+      </c>
+      <c r="H134">
+        <v>482325.1463102109</v>
+      </c>
+      <c r="I134">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>117385.8240893508</v>
+      </c>
+      <c r="C135">
+        <v>0.5257908305885387</v>
+      </c>
+      <c r="D135">
+        <v>99.54943339767696</v>
+      </c>
+      <c r="E135">
+        <v>6029087.280549137</v>
+      </c>
+      <c r="F135">
+        <v>1507271.820137284</v>
+      </c>
+      <c r="G135">
+        <v>7536458.650119819</v>
+      </c>
+      <c r="H135">
+        <v>482326.0399640881</v>
+      </c>
+      <c r="I135">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>117385.3367941394</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>89.61272539470419</v>
+      </c>
+      <c r="E136">
+        <v>6029096.040384373</v>
+      </c>
+      <c r="F136">
+        <v>1507274.010096093</v>
+      </c>
+      <c r="G136">
+        <v>7536459.175910649</v>
+      </c>
+      <c r="H136">
+        <v>482326.982443931</v>
+      </c>
+      <c r="I136">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>117384.9244829435</v>
+      </c>
+      <c r="C137">
+        <v>0.4123111959347783</v>
+      </c>
+      <c r="D137">
+        <v>78.06469377167529</v>
+      </c>
+      <c r="E137">
+        <v>6029105.278809671</v>
+      </c>
+      <c r="F137">
+        <v>1507276.319702418</v>
+      </c>
+      <c r="G137">
+        <v>7536459.66320586</v>
+      </c>
+      <c r="H137">
+        <v>482327.6832307498</v>
+      </c>
+      <c r="I137">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>117384.5423588024</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>70.27250839399079</v>
+      </c>
+      <c r="E138">
+        <v>6029112.148106243</v>
+      </c>
+      <c r="F138">
+        <v>1507278.037026561</v>
+      </c>
+      <c r="G138">
+        <v>7536460.075517057</v>
+      </c>
+      <c r="H138">
+        <v>482328.4223047737</v>
+      </c>
+      <c r="I138">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>117384.2190347906</v>
+      </c>
+      <c r="C139">
+        <v>0.3233240118489613</v>
+      </c>
+      <c r="D139">
+        <v>61.21677277620847</v>
+      </c>
+      <c r="E139">
+        <v>6029119.392694737</v>
+      </c>
+      <c r="F139">
+        <v>1507279.848173684</v>
+      </c>
+      <c r="G139">
+        <v>7536460.457641197</v>
+      </c>
+      <c r="H139">
+        <v>482328.9718484994</v>
+      </c>
+      <c r="I139">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>117383.919382589</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>55.10628701545249</v>
+      </c>
+      <c r="E140">
+        <v>6029124.779464316</v>
+      </c>
+      <c r="F140">
+        <v>1507281.194866079</v>
+      </c>
+      <c r="G140">
+        <v>7536460.780965209</v>
+      </c>
+      <c r="H140">
+        <v>482329.5514155789</v>
+      </c>
+      <c r="I140">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>117383.6658397506</v>
+      </c>
+      <c r="C141">
+        <v>0.2535428383706104</v>
+      </c>
+      <c r="D141">
+        <v>48.00496136913129</v>
+      </c>
+      <c r="E141">
+        <v>6029130.460524833</v>
+      </c>
+      <c r="F141">
+        <v>1507282.615131208</v>
+      </c>
+      <c r="G141">
+        <v>7536461.080617411</v>
+      </c>
+      <c r="H141">
+        <v>482329.9823571453</v>
+      </c>
+      <c r="I141">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>117383.4308597004</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>43.21323542347835</v>
+      </c>
+      <c r="E142">
+        <v>6029134.684723901</v>
+      </c>
+      <c r="F142">
+        <v>1507283.671180975</v>
+      </c>
+      <c r="G142">
+        <v>7536461.33416025</v>
+      </c>
+      <c r="H142">
+        <v>482330.4368419866</v>
+      </c>
+      <c r="I142">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>117383.2320373634</v>
+      </c>
+      <c r="C143">
+        <v>0.1988223369779174</v>
+      </c>
+      <c r="D143">
+        <v>37.64451951839094</v>
+      </c>
+      <c r="E143">
+        <v>6029139.139696625</v>
+      </c>
+      <c r="F143">
+        <v>1507284.784924156</v>
+      </c>
+      <c r="G143">
+        <v>7536461.569140299</v>
+      </c>
+      <c r="H143">
+        <v>482330.7747779121</v>
+      </c>
+      <c r="I143">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>117383.0477714854</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>33.88694130129046</v>
+      </c>
+      <c r="E144">
+        <v>6029142.452229771</v>
+      </c>
+      <c r="F144">
+        <v>1507285.613057443</v>
+      </c>
+      <c r="G144">
+        <v>7536461.767962636</v>
+      </c>
+      <c r="H144">
+        <v>482331.13117573</v>
+      </c>
+      <c r="I144">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>117382.8918595569</v>
+      </c>
+      <c r="C145">
+        <v>0.1559119285639663</v>
+      </c>
+      <c r="D145">
+        <v>29.52006742225819</v>
+      </c>
+      <c r="E145">
+        <v>6029145.945728874</v>
+      </c>
+      <c r="F145">
+        <v>1507286.486432218</v>
+      </c>
+      <c r="G145">
+        <v>7536461.952228514</v>
+      </c>
+      <c r="H145">
+        <v>482331.3961783817</v>
+      </c>
+      <c r="I145">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>117382.7473624438</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>26.57344866523538</v>
+      </c>
+      <c r="E146">
+        <v>6029148.543351112</v>
+      </c>
+      <c r="F146">
+        <v>1507287.135837778</v>
+      </c>
+      <c r="G146">
+        <v>7536462.108140443</v>
+      </c>
+      <c r="H146">
+        <v>482331.6756583099</v>
+      </c>
+      <c r="I146">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>117382.6250998002</v>
+      </c>
+      <c r="C147">
+        <v>0.1222626435949589</v>
+      </c>
+      <c r="D147">
+        <v>23.14903517744731</v>
+      </c>
+      <c r="E147">
+        <v>6029151.282881903</v>
+      </c>
+      <c r="F147">
+        <v>1507287.820720476</v>
+      </c>
+      <c r="G147">
+        <v>7536462.252637556</v>
+      </c>
+      <c r="H147">
+        <v>482331.883468089</v>
+      </c>
+      <c r="I147">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>117382.5117883829</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>20.83835541939336</v>
+      </c>
+      <c r="E148">
+        <v>6029153.319884959</v>
+      </c>
+      <c r="F148">
+        <v>1507288.32997124</v>
+      </c>
+      <c r="G148">
+        <v>7536462.374900199</v>
+      </c>
+      <c r="H148">
+        <v>482332.1026305522</v>
+      </c>
+      <c r="I148">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>117382.4159127086</v>
+      </c>
+      <c r="C149">
+        <v>0.09587567427877572</v>
+      </c>
+      <c r="D149">
+        <v>18.15300033957463</v>
+      </c>
+      <c r="E149">
+        <v>6029155.468169022</v>
+      </c>
+      <c r="F149">
+        <v>1507288.867042256</v>
+      </c>
+      <c r="G149">
+        <v>7536462.488211617</v>
+      </c>
+      <c r="H149">
+        <v>482332.2655907967</v>
+      </c>
+      <c r="I149">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>117382.3270563789</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>16.34101163782526</v>
+      </c>
+      <c r="E150">
+        <v>6029157.065545587</v>
+      </c>
+      <c r="F150">
+        <v>1507289.266386397</v>
+      </c>
+      <c r="G150">
+        <v>7536462.584087292</v>
+      </c>
+      <c r="H150">
+        <v>482332.4374535218</v>
+      </c>
+      <c r="I150">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>117382.2518727566</v>
+      </c>
+      <c r="C151">
+        <v>0.07518362231675577</v>
+      </c>
+      <c r="D151">
+        <v>14.23521116903334</v>
+      </c>
+      <c r="E151">
+        <v>6029158.750185961</v>
+      </c>
+      <c r="F151">
+        <v>1507289.68754649</v>
+      </c>
+      <c r="G151">
+        <v>7536462.672943621</v>
+      </c>
+      <c r="H151">
+        <v>482332.565243647</v>
+      </c>
+      <c r="I151">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>117382.1821935457</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>12.81428620599434</v>
+      </c>
+      <c r="E152">
+        <v>6029160.002816198</v>
+      </c>
+      <c r="F152">
+        <v>1507290.00070405</v>
+      </c>
+      <c r="G152">
+        <v>7536462.748127243</v>
+      </c>
+      <c r="H152">
+        <v>482332.7000148769</v>
+      </c>
+      <c r="I152">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>117382.1232361637</v>
+      </c>
+      <c r="C153">
+        <v>0.05895738199998564</v>
+      </c>
+      <c r="D153">
+        <v>11.16296066398476</v>
+      </c>
+      <c r="E153">
+        <v>6029161.323876632</v>
+      </c>
+      <c r="F153">
+        <v>1507290.330969158</v>
+      </c>
+      <c r="G153">
+        <v>7536462.817806454</v>
+      </c>
+      <c r="H153">
+        <v>482332.8002252959</v>
+      </c>
+      <c r="I153">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>117382.0685952191</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>10.04870012533174</v>
+      </c>
+      <c r="E154">
+        <v>6029162.306163725</v>
+      </c>
+      <c r="F154">
+        <v>1507290.576540931</v>
+      </c>
+      <c r="G154">
+        <v>7536462.876763836</v>
+      </c>
+      <c r="H154">
+        <v>482332.9059101306</v>
+      </c>
+      <c r="I154">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>117382.0223620955</v>
+      </c>
+      <c r="C155">
+        <v>0.04623312364195292</v>
+      </c>
+      <c r="D155">
+        <v>8.75376454217043</v>
+      </c>
+      <c r="E155">
+        <v>6029163.342112191</v>
+      </c>
+      <c r="F155">
+        <v>1507290.835528048</v>
+      </c>
+      <c r="G155">
+        <v>7536462.931404781</v>
+      </c>
+      <c r="H155">
+        <v>482332.984493098</v>
+      </c>
+      <c r="I155">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>117381.9795138278</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>7.879984108468988</v>
+      </c>
+      <c r="E156">
+        <v>6029164.112401652</v>
+      </c>
+      <c r="F156">
+        <v>1507291.028100413</v>
+      </c>
+      <c r="G156">
+        <v>7536462.977637905</v>
+      </c>
+      <c r="H156">
+        <v>482333.0673689753</v>
+      </c>
+      <c r="I156">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>117381.94325879</v>
+      </c>
+      <c r="C157">
+        <v>0.03625503782175868</v>
+      </c>
+      <c r="D157">
+        <v>6.86452223882092</v>
+      </c>
+      <c r="E157">
+        <v>6029164.924771146</v>
+      </c>
+      <c r="F157">
+        <v>1507291.231192786</v>
+      </c>
+      <c r="G157">
+        <v>7536463.020486172</v>
+      </c>
+      <c r="H157">
+        <v>482333.1289921322</v>
+      </c>
+      <c r="I157">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>117381.9096580832</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>6.179321459330668</v>
+      </c>
+      <c r="E158">
+        <v>6029165.528816367</v>
+      </c>
+      <c r="F158">
+        <v>1507291.382204092</v>
+      </c>
+      <c r="G158">
+        <v>7536463.05674121</v>
+      </c>
+      <c r="H158">
+        <v>482333.1939816917</v>
+      </c>
+      <c r="I158">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>117381.8812276451</v>
+      </c>
+      <c r="C159">
+        <v>0.02843043803293928</v>
+      </c>
+      <c r="D159">
+        <v>5.383017147561253</v>
+      </c>
+      <c r="E159">
+        <v>6029166.165859816</v>
+      </c>
+      <c r="F159">
+        <v>1507291.541464954</v>
+      </c>
+      <c r="G159">
+        <v>7536463.090341917</v>
+      </c>
+      <c r="H159">
+        <v>482333.2423053093</v>
+      </c>
+      <c r="I159">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>117381.8548786767</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>4.845696714677105</v>
+      </c>
+      <c r="E160">
+        <v>6029166.639539686</v>
+      </c>
+      <c r="F160">
+        <v>1507291.659884922</v>
+      </c>
+      <c r="G160">
+        <v>7536463.118772355</v>
+      </c>
+      <c r="H160">
+        <v>482333.2932687853</v>
+      </c>
+      <c r="I160">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>117381.8325841228</v>
+      </c>
+      <c r="C161">
+        <v>0.02229455398750466</v>
+      </c>
+      <c r="D161">
+        <v>4.221251261754799</v>
+      </c>
+      <c r="E161">
+        <v>6029167.139096049</v>
+      </c>
+      <c r="F161">
+        <v>1507291.784774012</v>
+      </c>
+      <c r="G161">
+        <v>7536463.145121323</v>
+      </c>
+      <c r="H161">
+        <v>482333.3311631749</v>
+      </c>
+      <c r="I161">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>117381.8119218132</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>3.799895590458598</v>
+      </c>
+      <c r="E162">
+        <v>6029167.510546077</v>
+      </c>
+      <c r="F162">
+        <v>1507291.877636519</v>
+      </c>
+      <c r="G162">
+        <v>7536463.167415877</v>
+      </c>
+      <c r="H162">
+        <v>482333.3711276839</v>
+      </c>
+      <c r="I162">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>117381.7944388894</v>
+      </c>
+      <c r="C163">
+        <v>0.01748292379275012</v>
+      </c>
+      <c r="D163">
+        <v>3.310218323646923</v>
+      </c>
+      <c r="E163">
+        <v>6029167.902287891</v>
+      </c>
+      <c r="F163">
+        <v>1507291.975571973</v>
+      </c>
+      <c r="G163">
+        <v>7536463.188078186</v>
+      </c>
+      <c r="H163">
+        <v>482333.4008436862</v>
+      </c>
+      <c r="I163">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>117381.7782359372</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>2.979799853564145</v>
+      </c>
+      <c r="E164">
+        <v>6029168.193571366</v>
+      </c>
+      <c r="F164">
+        <v>1507292.048392842</v>
+      </c>
+      <c r="G164">
+        <v>7536463.205561111</v>
+      </c>
+      <c r="H164">
+        <v>482333.4321830313</v>
+      </c>
+      <c r="I164">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>117381.7645261924</v>
+      </c>
+      <c r="C165">
+        <v>0.01370974479879896</v>
+      </c>
+      <c r="D165">
+        <v>2.59580502707392</v>
+      </c>
+      <c r="E165">
+        <v>6029168.500767229</v>
+      </c>
+      <c r="F165">
+        <v>1507292.125191807</v>
+      </c>
+      <c r="G165">
+        <v>7536463.221764063</v>
+      </c>
+      <c r="H165">
+        <v>482333.4554857093</v>
+      </c>
+      <c r="I165">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>117381.7518201745</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>2.33669765118137</v>
+      </c>
+      <c r="E166">
+        <v>6029168.729185739</v>
+      </c>
+      <c r="F166">
+        <v>1507292.182296435</v>
+      </c>
+      <c r="G166">
+        <v>7536463.235473808</v>
+      </c>
+      <c r="H166">
+        <v>482333.4800613783</v>
+      </c>
+      <c r="I166">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>117381.7410692775</v>
+      </c>
+      <c r="C167">
+        <v>0.01075089698457793</v>
+      </c>
+      <c r="D167">
+        <v>2.035576819843564</v>
+      </c>
+      <c r="E167">
+        <v>6029168.970082404</v>
+      </c>
+      <c r="F167">
+        <v>1507292.242520601</v>
+      </c>
+      <c r="G167">
+        <v>7536463.248179826</v>
+      </c>
+      <c r="H167">
+        <v>482333.4983348591</v>
+      </c>
+      <c r="I167">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>117381.7311054822</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>1.832390143423287</v>
+      </c>
+      <c r="E168">
+        <v>6029169.149203499</v>
+      </c>
+      <c r="F168">
+        <v>1507292.287300875</v>
+      </c>
+      <c r="G168">
+        <v>7536463.258930722</v>
+      </c>
+      <c r="H168">
+        <v>482333.5176065923</v>
+      </c>
+      <c r="I168">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>117381.7226748518</v>
+      </c>
+      <c r="C169">
+        <v>0.008430630373190789</v>
+      </c>
+      <c r="D169">
+        <v>1.596257392982142</v>
+      </c>
+      <c r="E169">
+        <v>6029169.338109699</v>
+      </c>
+      <c r="F169">
+        <v>1507292.334527425</v>
+      </c>
+      <c r="G169">
+        <v>7536463.268894518</v>
+      </c>
+      <c r="H169">
+        <v>482333.5319362799</v>
+      </c>
+      <c r="I169">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>117381.7148614502</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>1.436922581999572</v>
+      </c>
+      <c r="E170">
+        <v>6029169.478572776</v>
+      </c>
+      <c r="F170">
+        <v>1507292.369643194</v>
+      </c>
+      <c r="G170">
+        <v>7536463.277325148</v>
+      </c>
+      <c r="H170">
+        <v>482333.5470487759</v>
+      </c>
+      <c r="I170">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>117381.7082503245</v>
+      </c>
+      <c r="C171">
+        <v>0.006611125655076075</v>
+      </c>
+      <c r="D171">
+        <v>1.251752146174885</v>
+      </c>
+      <c r="E171">
+        <v>6029169.626709122</v>
+      </c>
+      <c r="F171">
+        <v>1507292.406677281</v>
+      </c>
+      <c r="G171">
+        <v>7536463.28513855</v>
+      </c>
+      <c r="H171">
+        <v>482333.558285822</v>
+      </c>
+      <c r="I171">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>117381.7021232168</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>1.126805067486196</v>
+      </c>
+      <c r="E172">
+        <v>6029169.736857373</v>
+      </c>
+      <c r="F172">
+        <v>1507292.434214343</v>
+      </c>
+      <c r="G172">
+        <v>7536463.291749676</v>
+      </c>
+      <c r="H172">
+        <v>482333.5701367298</v>
+      </c>
+      <c r="I172">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>117381.6969389089</v>
+      </c>
+      <c r="C173">
+        <v>0.005184307891625546</v>
+      </c>
+      <c r="D173">
+        <v>0.9815982288926136</v>
+      </c>
+      <c r="E173">
+        <v>6029169.853022844</v>
+      </c>
+      <c r="F173">
+        <v>1507292.463255711</v>
+      </c>
+      <c r="G173">
+        <v>7536463.297876784</v>
+      </c>
+      <c r="H173">
+        <v>482333.5789485899</v>
+      </c>
+      <c r="I173">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>117381.6921341578</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0.883617302999285</v>
+      </c>
+      <c r="E174">
+        <v>6029169.939398831</v>
+      </c>
+      <c r="F174">
+        <v>1507292.484849708</v>
+      </c>
+      <c r="G174">
+        <v>7536463.303061091</v>
+      </c>
+      <c r="H174">
+        <v>482333.5882418275</v>
+      </c>
+      <c r="I174">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>117381.6880687307</v>
+      </c>
+      <c r="C175">
+        <v>0.004065427019690503</v>
+      </c>
+      <c r="D175">
+        <v>0.7697490938498925</v>
+      </c>
+      <c r="E175">
+        <v>6029170.030493399</v>
+      </c>
+      <c r="F175">
+        <v>1507292.50762335</v>
+      </c>
+      <c r="G175">
+        <v>7536463.307865842</v>
+      </c>
+      <c r="H175">
+        <v>482333.5951519065</v>
+      </c>
+      <c r="I175">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>117381.6843009443</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0.6929144702656433</v>
+      </c>
+      <c r="E176">
+        <v>6029170.098227669</v>
+      </c>
+      <c r="F176">
+        <v>1507292.524556917</v>
+      </c>
+      <c r="G176">
+        <v>7536463.311931269</v>
+      </c>
+      <c r="H176">
+        <v>482333.6024394719</v>
+      </c>
+      <c r="I176">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>117381.6811129204</v>
+      </c>
+      <c r="C177">
+        <v>0.003188023833626541</v>
+      </c>
+      <c r="D177">
+        <v>0.6036213684272872</v>
+      </c>
+      <c r="E177">
+        <v>6029170.16966215</v>
+      </c>
+      <c r="F177">
+        <v>1507292.542415537</v>
+      </c>
+      <c r="G177">
+        <v>7536463.315699056</v>
+      </c>
+      <c r="H177">
+        <v>482333.6078582135</v>
+      </c>
+      <c r="I177">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>117381.6781583002</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>0.5433692398729724</v>
+      </c>
+      <c r="E178">
+        <v>6029170.222777968</v>
+      </c>
+      <c r="F178">
+        <v>1507292.555694492</v>
+      </c>
+      <c r="G178">
+        <v>7536463.318887079</v>
+      </c>
+      <c r="H178">
+        <v>482333.613572972</v>
+      </c>
+      <c r="I178">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>117381.6756583177</v>
+      </c>
+      <c r="C179">
+        <v>0.00249998242331362</v>
+      </c>
+      <c r="D179">
+        <v>0.4733474306109914</v>
+      </c>
+      <c r="E179">
+        <v>6029170.278795416</v>
+      </c>
+      <c r="F179">
+        <v>1507292.569698854</v>
+      </c>
+      <c r="G179">
+        <v>7536463.3218417</v>
+      </c>
+      <c r="H179">
+        <v>482333.6178222375</v>
+      </c>
+      <c r="I179">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>117381.6733413656</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0.4260989532007861</v>
+      </c>
+      <c r="E180">
+        <v>6029170.320447745</v>
+      </c>
+      <c r="F180">
+        <v>1507292.580111936</v>
+      </c>
+      <c r="G180">
+        <v>7536463.324341683</v>
+      </c>
+      <c r="H180">
+        <v>482333.6223036333</v>
+      </c>
+      <c r="I180">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>117381.671380931</v>
+      </c>
+      <c r="C181">
+        <v>0.001960434584279372</v>
+      </c>
+      <c r="D181">
+        <v>0.3711892942831591</v>
+      </c>
+      <c r="E181">
+        <v>6029170.364375472</v>
+      </c>
+      <c r="F181">
+        <v>1507292.591093868</v>
+      </c>
+      <c r="G181">
+        <v>7536463.326658634</v>
+      </c>
+      <c r="H181">
+        <v>482333.6256358196</v>
+      </c>
+      <c r="I181">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>117381.6695640249</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0.3341380122424124</v>
+      </c>
+      <c r="E182">
+        <v>6029170.39703837</v>
+      </c>
+      <c r="F182">
+        <v>1507292.599259593</v>
+      </c>
+      <c r="G182">
+        <v>7536463.328619069</v>
+      </c>
+      <c r="H182">
+        <v>482333.6291500378</v>
+      </c>
+      <c r="I182">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>117381.6680266926</v>
+      </c>
+      <c r="C183">
+        <v>0.001537332324151546</v>
+      </c>
+      <c r="D183">
+        <v>0.2910789900462252</v>
+      </c>
+      <c r="E183">
+        <v>6029170.431485588</v>
+      </c>
+      <c r="F183">
+        <v>1507292.607871397</v>
+      </c>
+      <c r="G183">
+        <v>7536463.330435975</v>
+      </c>
+      <c r="H183">
+        <v>482333.6317630697</v>
+      </c>
+      <c r="I183">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>117381.6666019124</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0.2620241385084049</v>
+      </c>
+      <c r="E184">
+        <v>6029170.45709916</v>
+      </c>
+      <c r="F184">
+        <v>1507292.61427479</v>
+      </c>
+      <c r="G184">
+        <v>7536463.331973308</v>
+      </c>
+      <c r="H184">
+        <v>482333.634518847</v>
+      </c>
+      <c r="I184">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>117381.6653963681</v>
+      </c>
+      <c r="C185">
+        <v>0.00120554427485977</v>
+      </c>
+      <c r="D185">
+        <v>0.2282581412779404</v>
+      </c>
+      <c r="E185">
+        <v>6029170.484111957</v>
+      </c>
+      <c r="F185">
+        <v>1507292.621027989</v>
+      </c>
+      <c r="G185">
+        <v>7536463.333398088</v>
+      </c>
+      <c r="H185">
+        <v>482333.6365679328</v>
+      </c>
+      <c r="I185">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>117381.6642790849</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0.2054739257446553</v>
+      </c>
+      <c r="E186">
+        <v>6029170.504197591</v>
+      </c>
+      <c r="F186">
+        <v>1507292.626049398</v>
+      </c>
+      <c r="G186">
+        <v>7536463.334603632</v>
+      </c>
+      <c r="H186">
+        <v>482333.6387289566</v>
+      </c>
+      <c r="I186">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>117381.663333722</v>
+      </c>
+      <c r="C187">
+        <v>0.0009453629399288103</v>
+      </c>
+      <c r="D187">
+        <v>0.1789953270662204</v>
+      </c>
+      <c r="E187">
+        <v>6029170.52538047</v>
+      </c>
+      <c r="F187">
+        <v>1507292.631345117</v>
+      </c>
+      <c r="G187">
+        <v>7536463.335720915</v>
+      </c>
+      <c r="H187">
+        <v>482333.6403358073</v>
+      </c>
+      <c r="I187">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>117381.6624575715</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0.1611284150365178</v>
+      </c>
+      <c r="E188">
+        <v>6029170.541131211</v>
+      </c>
+      <c r="F188">
+        <v>1507292.635282803</v>
+      </c>
+      <c r="G188">
+        <v>7536463.336666278</v>
+      </c>
+      <c r="H188">
+        <v>482333.6420304376</v>
+      </c>
+      <c r="I188">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>117381.6617162374</v>
+      </c>
+      <c r="C189">
+        <v>0.0007413341095674145</v>
+      </c>
+      <c r="D189">
+        <v>0.1403644440266573</v>
+      </c>
+      <c r="E189">
+        <v>6029170.557742388</v>
+      </c>
+      <c r="F189">
+        <v>1507292.639435597</v>
+      </c>
+      <c r="G189">
+        <v>7536463.337542429</v>
+      </c>
+      <c r="H189">
+        <v>482333.6432904968</v>
+      </c>
+      <c r="I189">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>117381.6610291783</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0.1263535800350399</v>
+      </c>
+      <c r="E190">
+        <v>6029170.570093793</v>
+      </c>
+      <c r="F190">
+        <v>1507292.642523448</v>
+      </c>
+      <c r="G190">
+        <v>7536463.338283762</v>
+      </c>
+      <c r="H190">
+        <v>482333.6446193911</v>
+      </c>
+      <c r="I190">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>117381.6604478394</v>
+      </c>
+      <c r="C191">
+        <v>0.0005813389127228029</v>
+      </c>
+      <c r="D191">
+        <v>0.1100709021954729</v>
+      </c>
+      <c r="E191">
+        <v>6029170.583119935</v>
+      </c>
+      <c r="F191">
+        <v>1507292.645779984</v>
+      </c>
+      <c r="G191">
+        <v>7536463.338970821</v>
+      </c>
+      <c r="H191">
+        <v>482333.6456075034</v>
+      </c>
+      <c r="I191">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>117381.6599090618</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0.09908387157531955</v>
+      </c>
+      <c r="E192">
+        <v>6029170.592805654</v>
+      </c>
+      <c r="F192">
+        <v>1507292.648201413</v>
+      </c>
+      <c r="G192">
+        <v>7536463.33955216</v>
+      </c>
+      <c r="H192">
+        <v>482333.6466495948</v>
+      </c>
+      <c r="I192">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>117381.6594531879</v>
+      </c>
+      <c r="C193">
+        <v>0.000455873981602475</v>
+      </c>
+      <c r="D193">
+        <v>0.08631533142386084</v>
+      </c>
+      <c r="E193">
+        <v>6029170.603020485</v>
+      </c>
+      <c r="F193">
+        <v>1507292.650755121</v>
+      </c>
+      <c r="G193">
+        <v>7536463.340090938</v>
+      </c>
+      <c r="H193">
+        <v>482333.6474244523</v>
+      </c>
+      <c r="I193">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>117381.6590306896</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0.07769952858631077</v>
+      </c>
+      <c r="E194">
+        <v>6029170.610615825</v>
+      </c>
+      <c r="F194">
+        <v>1507292.652653956</v>
+      </c>
+      <c r="G194">
+        <v>7536463.340546812</v>
+      </c>
+      <c r="H194">
+        <v>482333.6482416388</v>
+      </c>
+      <c r="I194">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>117381.6586732026</v>
+      </c>
+      <c r="C195">
+        <v>0.0003574869717650534</v>
+      </c>
+      <c r="D195">
+        <v>0.06768670273755938</v>
+      </c>
+      <c r="E195">
+        <v>6029170.618626085</v>
+      </c>
+      <c r="F195">
+        <v>1507292.654656521</v>
+      </c>
+      <c r="G195">
+        <v>7536463.34096931</v>
+      </c>
+      <c r="H195">
+        <v>482333.6488492661</v>
+      </c>
+      <c r="I195">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>117381.6583418882</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>0.0609303678325637</v>
+      </c>
+      <c r="E196">
+        <v>6029170.624582195</v>
+      </c>
+      <c r="F196">
+        <v>1507292.656145549</v>
+      </c>
+      <c r="G196">
+        <v>7536463.341326797</v>
+      </c>
+      <c r="H196">
+        <v>482333.6494900868</v>
+      </c>
+      <c r="I196">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>117381.6580615543</v>
+      </c>
+      <c r="C197">
+        <v>0.0002803339087570065</v>
+      </c>
+      <c r="D197">
+        <v>0.05307851630774879</v>
+      </c>
+      <c r="E197">
+        <v>6029170.630863676</v>
+      </c>
+      <c r="F197">
+        <v>1507292.657715919</v>
+      </c>
+      <c r="G197">
+        <v>7536463.341658112</v>
+      </c>
+      <c r="H197">
+        <v>482333.6499665756</v>
+      </c>
+      <c r="I197">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>117381.6578017444</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>0.04778033781144975</v>
+      </c>
+      <c r="E198">
+        <v>6029170.635534334</v>
+      </c>
+      <c r="F198">
+        <v>1507292.658883583</v>
+      </c>
+      <c r="G198">
+        <v>7536463.341938445</v>
+      </c>
+      <c r="H198">
+        <v>482333.650469094</v>
+      </c>
+      <c r="I198">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>117381.6575819123</v>
+      </c>
+      <c r="C199">
+        <v>0.0002198320685603906</v>
+      </c>
+      <c r="D199">
+        <v>0.04162307778420107</v>
+      </c>
+      <c r="E199">
+        <v>6029170.640460143</v>
+      </c>
+      <c r="F199">
+        <v>1507292.660115036</v>
+      </c>
+      <c r="G199">
+        <v>7536463.342198255</v>
+      </c>
+      <c r="H199">
+        <v>482333.6508427467</v>
+      </c>
+      <c r="I199">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>117381.6573781747</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0.03746835547384691</v>
+      </c>
+      <c r="E200">
+        <v>6029170.644122777</v>
+      </c>
+      <c r="F200">
+        <v>1507292.661030694</v>
+      </c>
+      <c r="G200">
+        <v>7536463.342418088</v>
+      </c>
+      <c r="H200">
+        <v>482333.6512368114</v>
+      </c>
+      <c r="I200">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>117381.6572057869</v>
+      </c>
+      <c r="C201">
+        <v>0.0001723877736518608</v>
+      </c>
+      <c r="D201">
+        <v>0.03263995914989756</v>
+      </c>
+      <c r="E201">
+        <v>6029170.647985492</v>
+      </c>
+      <c r="F201">
+        <v>1507292.661996373</v>
+      </c>
+      <c r="G201">
+        <v>7536463.342621826</v>
+      </c>
+      <c r="H201">
+        <v>482333.6515298221</v>
+      </c>
+      <c r="I201">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>117381.6570460201</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0.02938191159975948</v>
+      </c>
+      <c r="E202">
+        <v>6029170.650857654</v>
+      </c>
+      <c r="F202">
+        <v>1507292.662714414</v>
+      </c>
+      <c r="G202">
+        <v>7536463.342794213</v>
+      </c>
+      <c r="H202">
+        <v>482333.6518388393</v>
+      </c>
+      <c r="I202">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
